--- a/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55CFA5A-4564-490E-9844-0F499DC84CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF687FDA-B08A-44B5-A720-E83872C9B45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5966E84C-B668-475F-A739-DDF25CAB0ED9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5DA874B-3B8E-4E0D-ADA4-674FE23C1B77}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,436 +74,451 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF8EE6D-96F0-4DD2-A7C7-82B23B4C929C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61BF073-C4A8-46A6-AE60-75CA5667A1E4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1383,10 +1398,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,13 +1416,13 @@
         <v>390712</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>780</v>
@@ -1416,13 +1431,13 @@
         <v>592157</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
@@ -1431,13 +1446,13 @@
         <v>982869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,13 +1467,13 @@
         <v>1514095</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1540</v>
@@ -1467,13 +1482,13 @@
         <v>1257925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2810</v>
@@ -1482,13 +1497,13 @@
         <v>2772020</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,7 +1530,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1544,7 +1559,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,13 +1571,13 @@
         <v>24199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -1571,13 +1586,13 @@
         <v>36873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1586,13 +1601,13 @@
         <v>61072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,13 +1622,13 @@
         <v>50921</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>98</v>
@@ -1622,13 +1637,13 @@
         <v>63828</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>149</v>
@@ -1637,13 +1652,13 @@
         <v>114750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1673,13 @@
         <v>143382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -1673,13 +1688,13 @@
         <v>172308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>452</v>
@@ -1688,13 +1703,13 @@
         <v>315691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,13 +1724,13 @@
         <v>454537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>572</v>
@@ -1724,13 +1739,13 @@
         <v>440876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1005</v>
@@ -1739,13 +1754,13 @@
         <v>895414</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1828,13 @@
         <v>228449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>569</v>
@@ -1828,13 +1843,13 @@
         <v>371549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>828</v>
@@ -1843,13 +1858,13 @@
         <v>599998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1879,13 @@
         <v>256132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>738</v>
@@ -1879,13 +1894,13 @@
         <v>454596</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1031</v>
@@ -1894,13 +1909,13 @@
         <v>710728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1930,13 @@
         <v>623565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>1441</v>
@@ -1930,28 +1945,28 @@
         <v>971495</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>2177</v>
       </c>
       <c r="N21" s="7">
-        <v>1595060</v>
+        <v>1595059</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1981,13 @@
         <v>2267472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>2603</v>
@@ -1981,28 +1996,28 @@
         <v>1998958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>4678</v>
       </c>
       <c r="N22" s="7">
-        <v>4266431</v>
+        <v>4266430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2059,7 @@
         <v>8714</v>
       </c>
       <c r="N23" s="7">
-        <v>7172216</v>
+        <v>7172215</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2073,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF687FDA-B08A-44B5-A720-E83872C9B45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6946B5A9-2B0D-4CC8-A2A3-C62FCCD517FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5DA874B-3B8E-4E0D-ADA4-674FE23C1B77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{781BF501-2870-4CEE-B45E-94495D6C5AEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61BF073-C4A8-46A6-AE60-75CA5667A1E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CE2F0B-2601-4B21-AB9A-939663B7CE71}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6946B5A9-2B0D-4CC8-A2A3-C62FCCD517FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FF7521-EC9D-4E1C-B891-F5D84B247304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{781BF501-2870-4CEE-B45E-94495D6C5AEC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBFB003D-5432-4B52-92B9-88182276C557}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,421 +104,406 @@
     <t>12,3%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>16,75%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>10,8%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>8,44%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>17,0%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CE2F0B-2601-4B21-AB9A-939663B7CE71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D45C5-DA2E-4602-96DC-576C8472293B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1398,10 +1383,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,13 +1401,13 @@
         <v>390712</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>780</v>
@@ -1431,13 +1416,13 @@
         <v>592157</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
@@ -1446,13 +1431,13 @@
         <v>982869</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,13 +1452,13 @@
         <v>1514095</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1540</v>
@@ -1482,13 +1467,13 @@
         <v>1257925</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2810</v>
@@ -1497,13 +1482,13 @@
         <v>2772020</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,7 +1515,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1559,7 +1544,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1571,13 +1556,13 @@
         <v>24199</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -1586,13 +1571,13 @@
         <v>36873</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1601,13 +1586,13 @@
         <v>61072</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1607,13 @@
         <v>50921</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>98</v>
@@ -1637,13 +1622,13 @@
         <v>63828</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>149</v>
@@ -1652,13 +1637,13 @@
         <v>114750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,13 +1658,13 @@
         <v>143382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -1688,13 +1673,13 @@
         <v>172308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>452</v>
@@ -1703,13 +1688,13 @@
         <v>315691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1709,13 @@
         <v>454537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>572</v>
@@ -1739,13 +1724,13 @@
         <v>440876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1005</v>
@@ -1754,13 +1739,13 @@
         <v>895414</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,13 +1813,13 @@
         <v>228449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>569</v>
@@ -1843,13 +1828,13 @@
         <v>371549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>828</v>
@@ -1858,13 +1843,13 @@
         <v>599998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1864,13 @@
         <v>256132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>738</v>
@@ -1894,13 +1879,13 @@
         <v>454596</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>1031</v>
@@ -1909,13 +1894,13 @@
         <v>710728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1915,13 @@
         <v>623565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>1441</v>
@@ -1945,28 +1930,28 @@
         <v>971495</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>2177</v>
       </c>
       <c r="N21" s="7">
-        <v>1595059</v>
+        <v>1595060</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1966,13 @@
         <v>2267472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>2603</v>
@@ -1996,28 +1981,28 @@
         <v>1998958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>4678</v>
       </c>
       <c r="N22" s="7">
-        <v>4266430</v>
+        <v>4266431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2044,7 @@
         <v>8714</v>
       </c>
       <c r="N23" s="7">
-        <v>7172215</v>
+        <v>7172216</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2073,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FF7521-EC9D-4E1C-B891-F5D84B247304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5842F3-652B-4DE1-AC5F-2A92450307E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBFB003D-5432-4B52-92B9-88182276C557}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{026631F7-1E03-41E8-8485-4F7AAC57D83E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,439 +71,454 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D45C5-DA2E-4602-96DC-576C8472293B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99BDED0-9F5E-409D-BA01-4D1E18E0135E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1039,7 +1054,7 @@
         <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>86715</v>
+        <v>78760</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1054,7 +1069,7 @@
         <v>278</v>
       </c>
       <c r="I4" s="7">
-        <v>170058</v>
+        <v>148546</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1069,7 +1084,7 @@
         <v>383</v>
       </c>
       <c r="N4" s="7">
-        <v>256773</v>
+        <v>227306</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1090,7 +1105,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="7">
-        <v>66608</v>
+        <v>62785</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1105,7 +1120,7 @@
         <v>277</v>
       </c>
       <c r="I5" s="7">
-        <v>155947</v>
+        <v>141225</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1120,7 +1135,7 @@
         <v>369</v>
       </c>
       <c r="N5" s="7">
-        <v>222554</v>
+        <v>204010</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1141,7 +1156,7 @@
         <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>89470</v>
+        <v>83193</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1156,7 +1171,7 @@
         <v>380</v>
       </c>
       <c r="I6" s="7">
-        <v>207030</v>
+        <v>187763</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1171,7 +1186,7 @@
         <v>502</v>
       </c>
       <c r="N6" s="7">
-        <v>296500</v>
+        <v>270956</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1192,7 +1207,7 @@
         <v>372</v>
       </c>
       <c r="D7" s="7">
-        <v>298841</v>
+        <v>290200</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1207,7 +1222,7 @@
         <v>491</v>
       </c>
       <c r="I7" s="7">
-        <v>300157</v>
+        <v>275634</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1222,7 +1237,7 @@
         <v>863</v>
       </c>
       <c r="N7" s="7">
-        <v>598997</v>
+        <v>565835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1243,7 +1258,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1258,7 +1273,7 @@
         <v>1426</v>
       </c>
       <c r="I8" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1273,7 +1288,7 @@
         <v>2117</v>
       </c>
       <c r="N8" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1296,7 +1311,7 @@
         <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>117535</v>
+        <v>106901</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1311,7 +1326,7 @@
         <v>238</v>
       </c>
       <c r="I9" s="7">
-        <v>164618</v>
+        <v>148205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1326,7 +1341,7 @@
         <v>366</v>
       </c>
       <c r="N9" s="7">
-        <v>282153</v>
+        <v>255106</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1347,7 +1362,7 @@
         <v>150</v>
       </c>
       <c r="D10" s="7">
-        <v>138603</v>
+        <v>133383</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1362,7 +1377,7 @@
         <v>363</v>
       </c>
       <c r="I10" s="7">
-        <v>234821</v>
+        <v>216692</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1377,16 +1392,16 @@
         <v>513</v>
       </c>
       <c r="N10" s="7">
-        <v>373424</v>
+        <v>350075</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,46 +1413,46 @@
         <v>443</v>
       </c>
       <c r="D11" s="7">
-        <v>390712</v>
+        <v>367696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>780</v>
       </c>
       <c r="I11" s="7">
-        <v>592157</v>
+        <v>646268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
       </c>
       <c r="N11" s="7">
-        <v>982869</v>
+        <v>1013965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,46 +1464,46 @@
         <v>1270</v>
       </c>
       <c r="D12" s="7">
-        <v>1514095</v>
+        <v>1681316</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1540</v>
       </c>
       <c r="I12" s="7">
-        <v>1257925</v>
+        <v>1226658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2810</v>
       </c>
       <c r="N12" s="7">
-        <v>2772020</v>
+        <v>2907975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,7 +1515,7 @@
         <v>1991</v>
       </c>
       <c r="D13" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1515,7 +1530,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1530,7 +1545,7 @@
         <v>4912</v>
       </c>
       <c r="N13" s="7">
-        <v>4410466</v>
+        <v>4527121</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1544,7 +1559,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1553,46 +1568,46 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>24199</v>
+        <v>22327</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>36873</v>
+        <v>33874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
       </c>
       <c r="N14" s="7">
-        <v>61072</v>
+        <v>56201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,46 +1619,46 @@
         <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>50921</v>
+        <v>49638</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>63828</v>
+        <v>58627</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>149</v>
       </c>
       <c r="N15" s="7">
-        <v>114750</v>
+        <v>108266</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,46 +1670,46 @@
         <v>171</v>
       </c>
       <c r="D16" s="7">
-        <v>143382</v>
+        <v>136129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>172308</v>
+        <v>158610</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>452</v>
       </c>
       <c r="N16" s="7">
-        <v>315691</v>
+        <v>294739</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,46 +1721,46 @@
         <v>433</v>
       </c>
       <c r="D17" s="7">
-        <v>454537</v>
+        <v>438528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>572</v>
       </c>
       <c r="I17" s="7">
-        <v>440876</v>
+        <v>409351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1005</v>
       </c>
       <c r="N17" s="7">
-        <v>895414</v>
+        <v>847879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1772,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1772,7 +1787,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1787,7 +1802,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1810,46 +1825,46 @@
         <v>259</v>
       </c>
       <c r="D19" s="7">
-        <v>228449</v>
+        <v>207989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>569</v>
       </c>
       <c r="I19" s="7">
-        <v>371549</v>
+        <v>330624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>828</v>
       </c>
       <c r="N19" s="7">
-        <v>599998</v>
+        <v>538613</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,46 +1876,46 @@
         <v>293</v>
       </c>
       <c r="D20" s="7">
-        <v>256132</v>
+        <v>245807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>738</v>
       </c>
       <c r="I20" s="7">
-        <v>454596</v>
+        <v>416544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1031</v>
       </c>
       <c r="N20" s="7">
-        <v>710728</v>
+        <v>662351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,46 +1927,46 @@
         <v>736</v>
       </c>
       <c r="D21" s="7">
-        <v>623565</v>
+        <v>587018</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>1441</v>
       </c>
       <c r="I21" s="7">
-        <v>971495</v>
+        <v>992642</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>2177</v>
       </c>
       <c r="N21" s="7">
-        <v>1595060</v>
+        <v>1579660</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,46 +1978,46 @@
         <v>2075</v>
       </c>
       <c r="D22" s="7">
-        <v>2267472</v>
+        <v>2410045</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>2603</v>
       </c>
       <c r="I22" s="7">
-        <v>1998958</v>
+        <v>1911644</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>4678</v>
       </c>
       <c r="N22" s="7">
-        <v>4266431</v>
+        <v>4321690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2029,7 @@
         <v>3363</v>
       </c>
       <c r="D23" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2029,7 +2044,7 @@
         <v>5351</v>
       </c>
       <c r="I23" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2044,7 +2059,7 @@
         <v>8714</v>
       </c>
       <c r="N23" s="7">
-        <v>7172216</v>
+        <v>7102314</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2073,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
+          <t>Población según la frecuencia con la que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
